--- a/data/trans_bre/P11_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P11_R2-Edad-trans_bre.xlsx
@@ -662,20 +662,20 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9808825796591569</v>
+        <v>-0.9372822420373723</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.2287735280672468</v>
+        <v>-0.178663424977691</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8101173515978604</v>
+        <v>-0.8521362875169034</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7027898030985144</v>
+        <v>0.9327286463322702</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.3958760150788792</v>
+        <v>-0.2977040208271629</v>
       </c>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="inlineStr"/>
@@ -688,20 +688,20 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.204695416716425</v>
+        <v>1.196964202908281</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.142808091893491</v>
+        <v>3.209894928152426</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.231665614612216</v>
+        <v>1.379959609159932</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.273541328977625</v>
+        <v>6.678399098912786</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>8.896022163608507</v>
+        <v>9.447214419482584</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="inlineStr"/>
@@ -739,7 +739,7 @@
         <v>0.7787812942554083</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.3432265923595998</v>
+        <v>-0.3432265923595999</v>
       </c>
     </row>
     <row r="8">
@@ -750,28 +750,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.278737623968575</v>
+        <v>-1.381771872939498</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.920504693443758</v>
+        <v>-1.909620133291097</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.3575897825337435</v>
+        <v>-0.4241632443370941</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.738357324318917</v>
+        <v>-4.620283096395072</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4883039920516911</v>
+        <v>-0.4888377419248486</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7412292561438648</v>
+        <v>-0.7276458393664328</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2332331359064382</v>
+        <v>-0.2055246337937646</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7338116292135961</v>
+        <v>-0.714523760216258</v>
       </c>
     </row>
     <row r="9">
@@ -782,28 +782,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.978042120600165</v>
+        <v>2.080148242062001</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.016792731837177</v>
+        <v>1.230612991650749</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.30416987162538</v>
+        <v>3.48928791118717</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9160652982853373</v>
+        <v>1.141075028133428</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.455647132192945</v>
+        <v>1.851886633324458</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9824105070720931</v>
+        <v>1.194073086971553</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.178151025448201</v>
+        <v>3.667436300293568</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3717168134129822</v>
+        <v>0.5508578583215418</v>
       </c>
     </row>
     <row r="10">
@@ -827,7 +827,7 @@
         <v>1.442564266093921</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.849506089743008</v>
+        <v>0.8495060897430067</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3190716398398051</v>
@@ -839,7 +839,7 @@
         <v>0.7295343657961874</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1707204102232945</v>
+        <v>0.1707204102232943</v>
       </c>
     </row>
     <row r="11">
@@ -850,28 +850,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.136528885842846</v>
+        <v>-1.17726464556877</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8694392955858001</v>
+        <v>1.047881559567166</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3429900950037133</v>
+        <v>-0.2405176022637562</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.276419958585732</v>
+        <v>-1.554618169842658</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4527118602039307</v>
+        <v>-0.4384630955787827</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1862555833223035</v>
+        <v>0.2369297285144008</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1473953440910356</v>
+        <v>-0.1423546603094879</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2151620460838817</v>
+        <v>-0.2558185014684441</v>
       </c>
     </row>
     <row r="12">
@@ -882,28 +882,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.171413102954388</v>
+        <v>2.178254422048632</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.278151854273151</v>
+        <v>5.435205309948634</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.25355910589248</v>
+        <v>3.522508957265466</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.285102298683777</v>
+        <v>3.264801510005425</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.904726979893234</v>
+        <v>1.906173622133203</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.968693378650297</v>
+        <v>3.12960107763461</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.5868344648894</v>
+        <v>2.733643046358877</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9330848698199157</v>
+        <v>0.9410440800811686</v>
       </c>
     </row>
     <row r="13">
@@ -927,7 +927,7 @@
         <v>1.815130476201329</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.637630772969866</v>
+        <v>0.6376307729698674</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5760472949187841</v>
@@ -939,7 +939,7 @@
         <v>0.3640172479191265</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.07716722753138416</v>
+        <v>0.07716722753138434</v>
       </c>
     </row>
     <row r="14">
@@ -950,28 +950,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.6617580024625301</v>
+        <v>-0.4888471149668857</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.160160153041103</v>
+        <v>-0.9874849245085372</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.7775819849610907</v>
+        <v>-0.6841937346253932</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.825527237406192</v>
+        <v>-2.04318124821889</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1805045528270813</v>
+        <v>-0.1520149635427082</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2211261790089128</v>
+        <v>-0.2062790207844129</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.128478944460536</v>
+        <v>-0.1188576498764755</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1966807804123687</v>
+        <v>-0.2131320151917745</v>
       </c>
     </row>
     <row r="15">
@@ -982,28 +982,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.88569019160764</v>
+        <v>4.156838778357002</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.200464046188366</v>
+        <v>4.360812960659775</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.66019294574244</v>
+        <v>4.595872860116712</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.555009044145367</v>
+        <v>3.633654488058885</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.001757325698271</v>
+        <v>2.306537745662082</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.247951425261688</v>
+        <v>1.345752217759207</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.237290579368324</v>
+        <v>1.25487439695228</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5344720019561792</v>
+        <v>0.5699281853518343</v>
       </c>
     </row>
     <row r="16">
@@ -1027,7 +1027,7 @@
         <v>8.682672410983502</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.617118801890149</v>
+        <v>1.617118801890152</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1449233895374791</v>
@@ -1039,7 +1039,7 @@
         <v>1.971447827565077</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1232822169952981</v>
+        <v>0.1232822169952983</v>
       </c>
     </row>
     <row r="17">
@@ -1050,28 +1050,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.363362874637859</v>
+        <v>-2.489203002557718</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.152135966649035</v>
+        <v>2.884384811297013</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.895056410151561</v>
+        <v>5.030699159691226</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.857267506910028</v>
+        <v>-1.7852344077144</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3706925938047048</v>
+        <v>-0.3724688432054722</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3354226517076758</v>
+        <v>0.3063077023286041</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.821517088228461</v>
+        <v>0.7403417014037269</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1313464365275397</v>
+        <v>-0.1207864117596179</v>
       </c>
     </row>
     <row r="18">
@@ -1082,28 +1082,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.116785860372508</v>
+        <v>3.866103647569984</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.35268226583845</v>
+        <v>11.3244326726878</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.48564010692552</v>
+        <v>12.16639784070423</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.079564832971906</v>
+        <v>5.043379153426445</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.060188505230571</v>
+        <v>1.017167216792772</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.209314931293634</v>
+        <v>2.25891604113188</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4.267950593812549</v>
+        <v>4.133489835570435</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4681519471299616</v>
+        <v>0.4555511429742026</v>
       </c>
     </row>
     <row r="19">
@@ -1127,7 +1127,7 @@
         <v>8.198619729135975</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7.49089360191863</v>
+        <v>7.490893601918625</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4881671478965106</v>
@@ -1139,7 +1139,7 @@
         <v>1.164451129121595</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.8536088626391767</v>
+        <v>0.853608862639176</v>
       </c>
     </row>
     <row r="20">
@@ -1150,28 +1150,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.6774875107528492</v>
+        <v>-1.235662053930807</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.707609676485945</v>
+        <v>2.205364821974071</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.625292035527463</v>
+        <v>3.655479257340846</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4.097708633985314</v>
+        <v>4.134542845624917</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.08259959674385285</v>
+        <v>-0.1451073299264438</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1999513597068172</v>
+        <v>0.1341703106258628</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3546191357539067</v>
+        <v>0.3320197054417285</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3690951803558331</v>
+        <v>0.3500512118312104</v>
       </c>
     </row>
     <row r="21">
@@ -1182,28 +1182,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.582675962314229</v>
+        <v>7.738210411184154</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>14.85611906759665</v>
+        <v>14.28434581282285</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13.12516413315164</v>
+        <v>13.31881500294435</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10.80331465658317</v>
+        <v>10.97202286722961</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.509544595212859</v>
+        <v>1.386511988513124</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.844271418651361</v>
+        <v>1.865258157333599</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.63308560313214</v>
+        <v>2.668501216151474</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.53274502769677</v>
+        <v>1.522289464985137</v>
       </c>
     </row>
     <row r="22">
@@ -1250,28 +1250,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.309627749547502</v>
+        <v>-3.480533867090124</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.072428552940388</v>
+        <v>4.538360364067218</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.030328226311436</v>
+        <v>6.898287307688232</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16.03315867764321</v>
+        <v>16.25324982710962</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2026591344370263</v>
+        <v>-0.214947644239731</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2016910255622701</v>
+        <v>0.1668274556901394</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4441881003087361</v>
+        <v>0.3957614109408674</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.760762026773515</v>
+        <v>0.8002557424092741</v>
       </c>
     </row>
     <row r="24">
@@ -1282,28 +1282,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.555177616727846</v>
+        <v>9.091381055854452</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>20.02184666383199</v>
+        <v>19.69743103023907</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20.73518488495496</v>
+        <v>19.64689609472871</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26.11052527614148</v>
+        <v>26.29442689656163</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.033458206925008</v>
+        <v>0.9805153167831762</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.254977606733771</v>
+        <v>1.242231954419075</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.757568150857412</v>
+        <v>1.654405587126704</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.748788736686776</v>
+        <v>1.828605596391824</v>
       </c>
     </row>
     <row r="25">
@@ -1327,7 +1327,7 @@
         <v>4.995657416729138</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4.566722884994526</v>
+        <v>4.566722884994524</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.481855189087979</v>
@@ -1339,7 +1339,7 @@
         <v>1.206772857925057</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.5772015433158133</v>
+        <v>0.5772015433158131</v>
       </c>
     </row>
     <row r="26">
@@ -1350,28 +1350,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7141021993074498</v>
+        <v>0.6201274263857316</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.550288655844026</v>
+        <v>3.484431054651889</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.760654171356415</v>
+        <v>3.769859435588553</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.309283974294856</v>
+        <v>3.356501464402851</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1813108761904857</v>
+        <v>0.1508544885759781</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6252206973632465</v>
+        <v>0.6182011850056671</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8214826515529676</v>
+        <v>0.7913437556877769</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3913055295538544</v>
+        <v>0.3717904169808117</v>
       </c>
     </row>
     <row r="27">
@@ -1382,28 +1382,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.740776775961836</v>
+        <v>2.753876543988977</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.024199394399075</v>
+        <v>6.00409403777512</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.312413719228468</v>
+        <v>6.310198945054195</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.824789499722932</v>
+        <v>5.943037505746161</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8998914807043537</v>
+        <v>0.8893370175705622</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.350543785611121</v>
+        <v>1.333888688731959</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.765014954967376</v>
+        <v>1.691204949320123</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8063082620511711</v>
+        <v>0.8309195373676386</v>
       </c>
     </row>
     <row r="28">
